--- a/public/sample files/products-sample.xlsx
+++ b/public/sample files/products-sample.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMIL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041429F9-EB15-4074-A8A7-644BF4B75365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F2ABF-1CA8-44E0-A2E6-EEDED263550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -564,7 +575,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,8 +584,9 @@
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="2"/>
     <col min="28" max="28" width="10.140625" style="3"/>
     <col min="29" max="29" width="10.140625" style="2"/>
@@ -627,7 +639,7 @@
         <v>8.81</v>
       </c>
       <c r="G2" s="1">
-        <v>8.81</v>
+        <v>8.92</v>
       </c>
       <c r="J2" s="5"/>
       <c r="AB2" s="4"/>
@@ -653,7 +665,7 @@
         <v>9.74</v>
       </c>
       <c r="G3" s="1">
-        <v>9.74</v>
+        <v>9.85</v>
       </c>
       <c r="J3" s="5"/>
       <c r="AC3" s="6"/>
@@ -678,7 +690,7 @@
         <v>13.557600000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>13.557600000000001</v>
+        <v>13.76</v>
       </c>
       <c r="J4" s="5"/>
       <c r="AC4" s="6"/>
@@ -703,7 +715,7 @@
         <v>13.557600000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>13.557600000000001</v>
+        <v>13.76</v>
       </c>
       <c r="J5" s="5"/>
       <c r="AC5" s="6"/>
@@ -728,7 +740,7 @@
         <v>18.63</v>
       </c>
       <c r="G6" s="1">
-        <v>18.63</v>
+        <v>18.82</v>
       </c>
       <c r="J6" s="5"/>
       <c r="AC6" s="6"/>
@@ -744,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>19</v>
@@ -753,7 +765,7 @@
         <v>18.63</v>
       </c>
       <c r="G7" s="1">
-        <v>18.63</v>
+        <v>18.82</v>
       </c>
       <c r="J7" s="5"/>
       <c r="AC7" s="6"/>
@@ -778,7 +790,7 @@
         <v>18.63</v>
       </c>
       <c r="G8" s="1">
-        <v>18.63</v>
+        <v>18.82</v>
       </c>
       <c r="J8" s="5"/>
       <c r="AC8" s="6"/>
@@ -803,7 +815,7 @@
         <v>19.3</v>
       </c>
       <c r="G9" s="1">
-        <v>19.3</v>
+        <v>19.55</v>
       </c>
       <c r="J9" s="5"/>
       <c r="AC9" s="6"/>
@@ -828,7 +840,7 @@
         <v>27.97</v>
       </c>
       <c r="G10" s="1">
-        <v>27.97</v>
+        <v>28.26</v>
       </c>
       <c r="J10" s="5"/>
       <c r="AC10" s="6"/>
@@ -853,7 +865,7 @@
         <v>27.97</v>
       </c>
       <c r="G11" s="1">
-        <v>27.97</v>
+        <v>28.26</v>
       </c>
       <c r="J11" s="5"/>
       <c r="AC11" s="6"/>
@@ -878,7 +890,7 @@
         <v>27.97</v>
       </c>
       <c r="G12" s="1">
-        <v>27.97</v>
+        <v>28.26</v>
       </c>
       <c r="J12" s="5"/>
       <c r="AC12" s="6"/>
@@ -1078,7 +1090,7 @@
         <v>323</v>
       </c>
       <c r="G20" s="1">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1105,7 +1117,7 @@
         <v>323</v>
       </c>
       <c r="G21" s="1">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="J21" s="5"/>
       <c r="AC21" s="6"/>
